--- a/analysis/obt/202311.xlsx
+++ b/analysis/obt/202311.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CostOfLivingTracker\analysis\obt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E01B5C-F28B-4B68-8D44-61E780763152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D9000-B446-4261-A636-357D85E03B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="75" windowWidth="25500" windowHeight="20730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -478,16 +477,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -832,7 +828,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45246</v>
       </c>
@@ -1336,7 +1332,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>45250</v>
       </c>
       <c r="B29" t="s">
@@ -1353,7 +1349,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>45250</v>
       </c>
       <c r="B30" t="s">
@@ -1370,7 +1366,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>45250</v>
       </c>
       <c r="B31" t="s">
@@ -1387,7 +1383,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>45250</v>
       </c>
       <c r="B32" t="s">
@@ -1404,7 +1400,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>45250</v>
       </c>
       <c r="B33" t="s">
@@ -1421,7 +1417,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>45250</v>
       </c>
       <c r="B34" t="s">
@@ -1438,7 +1434,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>45250</v>
       </c>
       <c r="B35" t="s">
@@ -1455,7 +1451,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>45250</v>
       </c>
       <c r="B36" t="s">
@@ -1999,7 +1995,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>45260</v>
       </c>
       <c r="B65" t="s">
